--- a/sorted_aging_report.xlsx
+++ b/sorted_aging_report.xlsx
@@ -34092,7 +34092,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="n">
-        <v>-8042.78</v>
+        <v>8042.78</v>
       </c>
       <c r="J612" t="n">
         <v>0</v>
@@ -34107,7 +34107,7 @@
         <v>0</v>
       </c>
       <c r="N612" t="n">
-        <v>-8042.78</v>
+        <v>8042.78</v>
       </c>
       <c r="O612" t="inlineStr">
         <is>
